--- a/datas/cases.xlsx
+++ b/datas/cases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22120" windowHeight="10890" activeTab="5"/>
+    <workbookView windowWidth="22690" windowHeight="15360"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,21 +19,382 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="125">
-  <si>
-    <t>pageNO</t>
-  </si>
-  <si>
-    <t>pageSize</t>
-  </si>
-  <si>
-    <t>ajyz</t>
-  </si>
-  <si>
-    <t>anYou</t>
-  </si>
-  <si>
-    <t>slcx</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="149">
+  <si>
+    <t>caseNo</t>
+  </si>
+  <si>
+    <t>caseName</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>headers</t>
+  </si>
+  <si>
+    <t>payloads</t>
+  </si>
+  <si>
+    <t>expectResult</t>
+  </si>
+  <si>
+    <t>testResult</t>
+  </si>
+  <si>
+    <t>5_1</t>
+  </si>
+  <si>
+    <t>中英文标点使用混乱</t>
+  </si>
+  <si>
+    <t>{'Content-Type': 'application/json'}</t>
+  </si>
+  <si>
+    <t>{
+                "judgeId":3,
+                "paragraphs": [
+                    {
+                        "index":2,
+                        "content": "(2022)最高法民初2071号"
+                    },
+                    {
+                      "index": 10,
+                      "content": "案件受理费4,676元，由原告林印党负担。"
+                    }
+                ]
+            }</t>
+  </si>
+  <si>
+    <t>{
+                    "level": 1,
+                    "type": 1401,
+                    "keyword": "(",
+                    "suggestion": "（",
+                    "tip": ""
+                }</t>
+  </si>
+  <si>
+    <t>5_2</t>
+  </si>
+  <si>
+    <t>账号与法院代字不匹配</t>
+  </si>
+  <si>
+    <t>{
+                "judgeId":5,
+                "paragraphs": [
+                    {
+                        "index":2,
+                        "content": "（2022）最高法民初2071号"
+                    },
+                    {
+                      "index": 10,
+                      "content": "案件受理费4,676元，由原告林印党负担。"
+                    }
+                ]
+            }</t>
+  </si>
+  <si>
+    <t>{
+                    "level": 1,
+                    "type": 1003,
+                    "keyword": "最高法",
+                    "suggestion": "闽02",
+                    "tip": null
+                }</t>
+  </si>
+  <si>
+    <t>5_3</t>
+  </si>
+  <si>
+    <t>非当前年份</t>
+  </si>
+  <si>
+    <t>{
+                "judgeId":3,
+                "paragraphs": [
+                    {
+                        "index":2,
+                        "content": "（2020）最高法民初2071号"
+                    },
+                    {
+                      "index": 10,
+                      "content": "案件受理费4,676元，由原告林印党负担。"
+                    }
+                ]
+            }</t>
+  </si>
+  <si>
+    <t>{
+                    "level": 1,
+                    "type": 1002,
+                    "keyword": "2020",
+                    "suggestion": "2022",
+                    "tip": null
+                }</t>
+  </si>
+  <si>
+    <t>5_4</t>
+  </si>
+  <si>
+    <t>类型代字错误</t>
+  </si>
+  <si>
+    <t>{
+                "judgeId":3,
+                "paragraphs": [
+                    {
+                        "index":2,
+                        "content": "（2022）最高法民众2071号"
+                    },
+                    {
+                      "index": 10,
+                      "content": "案件受理费4,676元，由原告林印党负担。"
+                    }
+                ]
+            }</t>
+  </si>
+  <si>
+    <t>{
+                    "level": 1,
+                    "type": 1005,
+                    "keyword": "民众",
+                    "suggestion": "",
+                    "tip": null
+                }</t>
+  </si>
+  <si>
+    <t>5_5</t>
+  </si>
+  <si>
+    <t>案号格式正确</t>
+  </si>
+  <si>
+    <t>{
+                "judgeId":3,
+                "paragraphs": [
+                    {
+                        "index":2,
+                        "content": "（2022）最高法民初2071号"
+                    },
+                    {
+                      "index": 10,
+                      "content": "案件受理费4,676元，由原告林印党负担。"
+                    }
+                ]
+            }</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>5_6</t>
+  </si>
+  <si>
+    <t>顺序错误</t>
+  </si>
+  <si>
+    <t>{
+                "judgeId":3,
+                "paragraphs": [
+                    {
+                        "index":2,
+                        "content": "（2022）民初最高法2071号"
+                    },
+                    {
+                      "index": 10,
+                      "content": "案件受理费4,676元，由原告林印党负担。"
+                    }
+                ]
+            }</t>
+  </si>
+  <si>
+    <t>{
+                    "level": 1,
+                    "type": 1001,
+                    "keyword": "（2022）民初最高法2071号",
+                    "suggestion": "",
+                    "tip": "正确的案号格式为：（[收案年度]）[法院代字][类型代字][案件编号]号"
+                }</t>
+  </si>
+  <si>
+    <t>5_7</t>
+  </si>
+  <si>
+    <t>缺少法院代字</t>
+  </si>
+  <si>
+    <t>{
+                "judgeId":3,
+                "paragraphs": [
+                    {
+                        "index":2,
+                        "content": "（2022）民初2071号"
+                    },
+                    {
+                      "index": 10,
+                      "content": "案件受理费4,676元，由原告林印党负担。"
+                    }
+                ]
+            }</t>
+  </si>
+  <si>
+    <t>{
+                    "level": 1,
+                    "type": 1001,
+                    "keyword": "（2022）民初2071号",
+                    "suggestion": "",
+                    "tip": "请写明法院"
+                }</t>
+  </si>
+  <si>
+    <t>5_8</t>
+  </si>
+  <si>
+    <t>缺少类型代字</t>
+  </si>
+  <si>
+    <t>{
+                "judgeId":3,
+                "paragraphs": [
+                    {
+                        "index":2,
+                        "content": "（2022）最高法2071号"
+                    },
+                    {
+                      "index": 10,
+                      "content": "案件受理费4,676元，由原告林印党负担。"
+                    }
+                ]
+            }</t>
+  </si>
+  <si>
+    <t>{
+                    "level": 1,
+                    "type": 1001,
+                    "keyword": "（2022）最高法2071号",
+                    "suggestion": "",
+                    "tip": "请写明案件类型"
+                }</t>
+  </si>
+  <si>
+    <t>5_9</t>
+  </si>
+  <si>
+    <t>缺少案件编号</t>
+  </si>
+  <si>
+    <t>{
+                "judgeId":3,
+                "paragraphs": [
+                    {
+                        "index":2,
+                        "content": "（2022）最高法民初"
+                    },
+                    {
+                      "index": 10,
+                      "content": "案件受理费4,676元，由原告林印党负担。"
+                    }
+                ]
+            }</t>
+  </si>
+  <si>
+    <t>{
+                    "level": 1,
+                    "type": 1001,
+                    "keyword": "（2022）最高法民初",
+                    "suggestion": "",
+                    "tip": "请写明案件编号"
+                }</t>
+  </si>
+  <si>
+    <t>5_10</t>
+  </si>
+  <si>
+    <t>案件编号缺少“号”</t>
+  </si>
+  <si>
+    <t>{
+                "judgeId":3,
+                "paragraphs": [
+                    {
+                        "index":2,
+                        "content": "（2022）最高法民初2071"
+                    },
+                    {
+                      "index": 10,
+                      "content": "案件受理费4,676元，由原告林印党负担。"
+                    }
+                ]
+            }</t>
+  </si>
+  <si>
+    <t>{
+                    "level": 1,
+                    "type": 1001,
+                    "keyword": "（2022）最高法民初2071",
+                    "suggestion": "",
+                    "tip": "请写明案件编号"
+                }</t>
+  </si>
+  <si>
+    <t>5_11</t>
+  </si>
+  <si>
+    <t>收案年度括号用错</t>
+  </si>
+  <si>
+    <t>{
+                "judgeId":3,
+                "paragraphs": [
+                    {
+                        "index":2,
+                        "content": "[2022]最高法民初2071号"
+                    },
+                    {
+                      "index": 10,
+                      "content": "案件受理费4,676元，由原告林印党负担。"
+                    }
+                ]
+            }</t>
+  </si>
+  <si>
+    <t>{
+                    "level": 1,
+                    "type": 1006,
+                    "keyword": "[2022]",
+                    "suggestion": "（2022）",
+                    "tip": null
+                }</t>
+  </si>
+  <si>
+    <t>5_12</t>
+  </si>
+  <si>
+    <t>只检测开头的一个案号</t>
+  </si>
+  <si>
+    <t>{
+                "judgeId":3,
+                "paragraphs": [
+                    {
+                        "index":2,
+                        "content": "（2022）最高法民初2071号"
+                    },
+                    {
+                      "index": 3,
+                      "content": "再审申请人刘胜利因与被申请人唐景珍房屋买卖合同纠纷一案，不服吉林省高级人民法院（2021）吉民终292号民事判决，向本院申请再审。"
+                    },
+                    {
+                      "index": 10,
+                      "content": "案件受理费4,676元，由原告林印党负担。"
+                    }
+                ]
+            }</t>
+  </si>
+  <si>
+    <t>gid</t>
   </si>
   <si>
     <t>expected_result</t>
@@ -42,81 +403,6 @@
     <t>test_result</t>
   </si>
   <si>
-    <t>婚姻</t>
-  </si>
-  <si>
-    <t>宣告失踪、宣告死亡案件</t>
-  </si>
-  <si>
-    <t>全部</t>
-  </si>
-  <si>
-    <t>开门</t>
-  </si>
-  <si>
-    <t>加油</t>
-  </si>
-  <si>
-    <t>一审</t>
-  </si>
-  <si>
-    <t>行为</t>
-  </si>
-  <si>
-    <t>公式</t>
-  </si>
-  <si>
-    <t>开发</t>
-  </si>
-  <si>
-    <t>学习</t>
-  </si>
-  <si>
-    <t>哈萨克斯坦</t>
-  </si>
-  <si>
-    <t>渣渣辉</t>
-  </si>
-  <si>
-    <t>张家辉</t>
-  </si>
-  <si>
-    <t>供应商</t>
-  </si>
-  <si>
-    <t>二审</t>
-  </si>
-  <si>
-    <t>常回家看看</t>
-  </si>
-  <si>
-    <t>手中的铅笔</t>
-  </si>
-  <si>
-    <t>秋刀鱼</t>
-  </si>
-  <si>
-    <t>乘客</t>
-  </si>
-  <si>
-    <t>超速</t>
-  </si>
-  <si>
-    <t>再审</t>
-  </si>
-  <si>
-    <t>三国演义</t>
-  </si>
-  <si>
-    <t>炊事班的故事</t>
-  </si>
-  <si>
-    <t>nb</t>
-  </si>
-  <si>
-    <t>gid</t>
-  </si>
-  <si>
     <t>C1319511</t>
   </si>
   <si>
@@ -181,18 +467,6 @@
   </si>
   <si>
     <t>C1402141</t>
-  </si>
-  <si>
-    <t>caseNo</t>
-  </si>
-  <si>
-    <t>caseName</t>
-  </si>
-  <si>
-    <t>url</t>
-  </si>
-  <si>
-    <t>headers</t>
   </si>
   <si>
     <t>payload</t>
@@ -249,6 +523,9 @@
   </si>
   <si>
     <t>2_1</t>
+  </si>
+  <si>
+    <t>婚姻</t>
   </si>
   <si>
     <t>/library/cases</t>
@@ -267,6 +544,9 @@
     <t>2_2</t>
   </si>
   <si>
+    <t>开门</t>
+  </si>
+  <si>
     <t>{
   "pageNO": 1,
   "pageSize": 10,
@@ -482,11 +762,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -496,31 +776,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="10.5"/>
+      <color rgb="FF202D40"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -533,23 +811,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -572,7 +835,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -586,8 +871,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -601,39 +918,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -648,7 +941,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -660,13 +1007,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -678,66 +1079,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -750,19 +1091,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -772,68 +1125,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -842,12 +1135,47 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
-        <color theme="4"/>
+        <color auto="1"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -857,7 +1185,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -880,8 +1208,34 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -901,21 +1255,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -930,15 +1269,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -947,10 +1277,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -959,137 +1289,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1101,6 +1431,36 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1450,367 +1810,415 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.44545454545455" defaultRowHeight="14"/>
   <cols>
-    <col min="3" max="3" width="18.3636363636364" customWidth="1"/>
-    <col min="4" max="4" width="25" customWidth="1"/>
-    <col min="6" max="6" width="23.9090909090909" customWidth="1"/>
-    <col min="7" max="7" width="21.4545454545455" customWidth="1"/>
+    <col min="1" max="1" width="31.6363636363636" style="5" customWidth="1"/>
+    <col min="2" max="2" width="31.3363636363636" style="2" customWidth="1"/>
+    <col min="3" max="3" width="23.6363636363636" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="42.4545454545455" style="2" customWidth="1"/>
+    <col min="5" max="5" width="42.8818181818182" style="2" customWidth="1"/>
+    <col min="6" max="6" width="29.7272727272727" style="2" customWidth="1"/>
+    <col min="7" max="7" width="23.9636363636364" style="2" customWidth="1"/>
+    <col min="8" max="8" width="17.5181818181818" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" t="s">
+    <row r="1" s="4" customFormat="1" ht="27" customHeight="1" spans="1:7">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="2:6">
-      <c r="B2">
+    <row r="2" ht="38" customHeight="1" spans="1:6">
+      <c r="A2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2"/>
+      <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" ht="38" customHeight="1" spans="1:6">
+      <c r="A3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3"/>
+      <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6">
-      <c r="B3">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="E3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" ht="38" customHeight="1" spans="1:6">
+      <c r="A4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4"/>
+      <c r="D4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6">
-      <c r="B4">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6">
-      <c r="B5">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6">
-      <c r="B6">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6">
-      <c r="B7">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6">
-      <c r="B8">
-        <v>10</v>
-      </c>
-      <c r="C8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="E4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" customFormat="1" ht="38" customHeight="1" spans="1:7">
+      <c r="A5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5"/>
+      <c r="D5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6">
-      <c r="B9">
-        <v>10</v>
-      </c>
-      <c r="C9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="E5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="6"/>
+    </row>
+    <row r="6" ht="38" customHeight="1" spans="1:6">
+      <c r="A6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6"/>
+      <c r="D6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6">
-      <c r="B10">
-        <v>10</v>
-      </c>
-      <c r="C10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="E6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" ht="38" customHeight="1" spans="1:6">
+      <c r="A7" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7"/>
+      <c r="D7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6">
-      <c r="B11">
-        <v>10</v>
-      </c>
-      <c r="C11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="E7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" ht="38" customHeight="1" spans="1:6">
+      <c r="A8" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8"/>
+      <c r="D8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6">
-      <c r="B12">
-        <v>10</v>
-      </c>
-      <c r="C12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6">
-      <c r="B13">
-        <v>10</v>
-      </c>
-      <c r="C13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" t="s">
-        <v>21</v>
-      </c>
-      <c r="F13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6">
-      <c r="B14">
-        <v>10</v>
-      </c>
-      <c r="C14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" t="s">
-        <v>21</v>
-      </c>
-      <c r="F14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6">
-      <c r="B15">
-        <v>10</v>
-      </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" t="s">
-        <v>21</v>
-      </c>
-      <c r="F15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6">
-      <c r="B16">
-        <v>10</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" t="s">
-        <v>21</v>
-      </c>
-      <c r="F16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6">
-      <c r="B17">
-        <v>10</v>
-      </c>
-      <c r="C17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="E8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" ht="38" customHeight="1" spans="1:6">
+      <c r="A9" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9"/>
+      <c r="D9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" ht="38" customHeight="1" spans="1:12">
+      <c r="A10" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10"/>
+      <c r="D10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+    </row>
+    <row r="11" ht="38" customHeight="1" spans="1:12">
+      <c r="A11" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11"/>
+      <c r="D11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="13"/>
+    </row>
+    <row r="12" ht="38" customHeight="1" spans="1:12">
+      <c r="A12" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12"/>
+      <c r="D12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="13"/>
+    </row>
+    <row r="13" ht="38" customHeight="1" spans="1:12">
+      <c r="A13" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13"/>
+      <c r="D13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6">
-      <c r="B18">
-        <v>10</v>
-      </c>
-      <c r="C18" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" t="s">
-        <v>27</v>
-      </c>
-      <c r="F18" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6">
-      <c r="B19">
-        <v>10</v>
-      </c>
-      <c r="C19" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" t="s">
-        <v>27</v>
-      </c>
-      <c r="F19" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6">
-      <c r="B20">
-        <v>10</v>
-      </c>
-      <c r="C20" t="s">
-        <v>30</v>
-      </c>
-      <c r="D20" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" t="s">
-        <v>27</v>
-      </c>
-      <c r="F20" t="s">
-        <v>30</v>
-      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+    </row>
+    <row r="14" ht="78" customHeight="1" spans="5:12">
+      <c r="E14" s="8"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+    </row>
+    <row r="15" ht="36" customHeight="1" spans="8:12">
+      <c r="H15" s="7"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+    </row>
+    <row r="16" ht="36" customHeight="1" spans="8:12">
+      <c r="H16" s="7"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+    </row>
+    <row r="17" customFormat="1" ht="21" customHeight="1" spans="1:7">
+      <c r="A17" s="5"/>
+      <c r="B17" s="2"/>
+      <c r="C17"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="6"/>
+    </row>
+    <row r="18" customFormat="1" ht="42" customHeight="1" spans="1:7">
+      <c r="A18" s="5"/>
+      <c r="B18" s="2"/>
+      <c r="C18"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="6"/>
+    </row>
+    <row r="21" ht="127" customHeight="1" spans="7:8">
+      <c r="G21" s="6"/>
+      <c r="H21" s="2"/>
+    </row>
+    <row r="23" customFormat="1" spans="1:7">
+      <c r="A23" s="5"/>
+      <c r="B23" s="2"/>
+      <c r="C23"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="6"/>
+    </row>
+    <row r="24" customFormat="1" spans="1:7">
+      <c r="A24" s="5"/>
+      <c r="B24" s="2"/>
+      <c r="C24"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="6"/>
+    </row>
+    <row r="25" customFormat="1" ht="35" customHeight="1" spans="1:7">
+      <c r="A25" s="5"/>
+      <c r="B25" s="2"/>
+      <c r="C25"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="6"/>
+    </row>
+    <row r="26" customFormat="1" ht="35" customHeight="1" spans="1:7">
+      <c r="A26" s="5"/>
+      <c r="B26" s="2"/>
+      <c r="C26"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="6"/>
+    </row>
+    <row r="27" customFormat="1" ht="62" customHeight="1" spans="1:7">
+      <c r="A27" s="5"/>
+      <c r="B27" s="2"/>
+      <c r="C27"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="6"/>
+    </row>
+    <row r="28" customFormat="1" ht="62" customHeight="1" spans="1:7">
+      <c r="A28" s="5"/>
+      <c r="B28" s="2"/>
+      <c r="C28"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="6"/>
+    </row>
+    <row r="29" customFormat="1" ht="33" customHeight="1" spans="1:7">
+      <c r="A29" s="5"/>
+      <c r="B29" s="2"/>
+      <c r="C29"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="6"/>
+    </row>
+    <row r="30" customFormat="1" spans="1:7">
+      <c r="A30" s="5"/>
+      <c r="B30" s="2"/>
+      <c r="C30"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="6"/>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="10"/>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2 G3 G10 G13 G14 G15 G16 G17 G18 G26 G4:G5 G11:G12 G19:G20 G21:G25 G27:G30 G31:G1048576">
+      <formula1>"PASS,NG"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -1834,189 +2242,189 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="3" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="3" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="3" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="3" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="3" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="3" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="3" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="3" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="3" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="3" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="3" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="3" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="3" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="3" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="3" t="s">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>49</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="3" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="3" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="3" t="s">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>52</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="3" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -2045,79 +2453,79 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>56</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="F1" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" ht="70" spans="1:6">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="B2" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="F2" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" ht="70" spans="1:6">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="F3" t="s">
-        <v>69</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" ht="70" spans="1:5">
       <c r="A4" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -2145,79 +2553,79 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>56</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="F1" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" ht="126" spans="1:6">
       <c r="A2" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>96</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="F2" t="s">
-        <v>7</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" ht="126" spans="1:6">
       <c r="A3" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" ht="126" spans="1:6">
       <c r="A4" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="B4" t="s">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="F4">
         <v>10</v>
@@ -2225,19 +2633,19 @@
     </row>
     <row r="5" ht="126" spans="1:6">
       <c r="A5" t="s">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="B5" t="s">
-        <v>82</v>
+        <v>106</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="F5">
         <v>20</v>
@@ -2245,42 +2653,42 @@
     </row>
     <row r="6" ht="126" spans="1:6">
       <c r="A6" t="s">
-        <v>84</v>
+        <v>108</v>
       </c>
       <c r="B6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="E6" s="2" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="F6" t="s">
-        <v>85</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" ht="126" spans="1:6">
       <c r="A7" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="B7" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="F7" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -2309,39 +2717,39 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>56</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="F1" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" ht="70" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="C2" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="F2">
         <v>10</v>
@@ -2349,19 +2757,19 @@
     </row>
     <row r="3" ht="70" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="B3" t="s">
-        <v>82</v>
+        <v>106</v>
       </c>
       <c r="C3" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="F3">
         <v>20</v>
@@ -2369,19 +2777,19 @@
     </row>
     <row r="4" ht="70" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="B4" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="C4" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="F4">
         <v>206</v>
@@ -2389,19 +2797,19 @@
     </row>
     <row r="5" ht="70" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="B5" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="C5" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2409,19 +2817,19 @@
     </row>
     <row r="6" ht="70" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="B6" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="C6" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="F6">
         <v>10</v>
@@ -2429,19 +2837,19 @@
     </row>
     <row r="7" ht="70" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="B7" t="s">
-        <v>104</v>
+        <v>128</v>
       </c>
       <c r="C7" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="F7">
         <v>10</v>
@@ -2449,19 +2857,19 @@
     </row>
     <row r="8" ht="70" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>106</v>
+        <v>130</v>
       </c>
       <c r="B8" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="C8" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>108</v>
+        <v>132</v>
       </c>
       <c r="F8">
         <v>306840</v>
@@ -2478,7 +2886,7 @@
   <sheetPr/>
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -2496,92 +2904,92 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>56</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="F1" t="s">
-        <v>109</v>
+        <v>133</v>
       </c>
       <c r="G1" t="s">
-        <v>110</v>
+        <v>134</v>
       </c>
       <c r="H1" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="I1" t="s">
-        <v>112</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" ht="56" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>113</v>
+        <v>137</v>
       </c>
       <c r="B2" t="s">
-        <v>114</v>
+        <v>138</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>115</v>
+        <v>139</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" ht="54" customHeight="1" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>115</v>
+        <v>139</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>119</v>
+        <v>143</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>120</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" ht="56" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>121</v>
+        <v>145</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="C4" t="s">
-        <v>115</v>
+        <v>139</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -2589,19 +2997,19 @@
     </row>
     <row r="5" ht="56" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>122</v>
+        <v>146</v>
       </c>
       <c r="B5" t="s">
-        <v>123</v>
+        <v>147</v>
       </c>
       <c r="C5" t="s">
-        <v>115</v>
+        <v>139</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>124</v>
+        <v>148</v>
       </c>
       <c r="F5">
         <v>0</v>
